--- a/data/טבלת מכרזים יוני 25.xlsx
+++ b/data/טבלת מכרזים יוני 25.xlsx
@@ -4496,7 +4496,7 @@
         <v>284</v>
       </c>
       <c r="I59" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J59" t="s">
         <v>285</v>

--- a/data/טבלת מכרזים יוני 25.xlsx
+++ b/data/טבלת מכרזים יוני 25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="427">
   <si>
     <t>id</t>
   </si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>פורסמה</t>
+  </si>
+  <si>
+    <t>2025-07-07 12:00:00</t>
   </si>
   <si>
     <t>4.8.2025</t>
@@ -1763,13 +1766,13 @@
         <v>45894.5</v>
       </c>
       <c r="N2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1813,13 +1816,13 @@
         <v>45887.5</v>
       </c>
       <c r="N3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1863,13 +1866,13 @@
         <v>45887.5</v>
       </c>
       <c r="N4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1913,13 +1916,13 @@
         <v>45894.5</v>
       </c>
       <c r="N5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1963,13 +1966,13 @@
         <v>45887.5</v>
       </c>
       <c r="N6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2013,13 +2016,13 @@
         <v>45901.5</v>
       </c>
       <c r="N7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2063,13 +2066,13 @@
         <v>45894.5</v>
       </c>
       <c r="N8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2113,13 +2116,13 @@
         <v>45901.5</v>
       </c>
       <c r="N9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2163,13 +2166,13 @@
         <v>45894.5</v>
       </c>
       <c r="N10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2213,13 +2216,13 @@
         <v>45901.5</v>
       </c>
       <c r="N11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2263,13 +2266,13 @@
         <v>45901.5</v>
       </c>
       <c r="N12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2313,13 +2316,13 @@
         <v>45901.5</v>
       </c>
       <c r="N13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2363,13 +2366,13 @@
         <v>45901.5</v>
       </c>
       <c r="N14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2413,13 +2416,13 @@
         <v>45901.5</v>
       </c>
       <c r="N15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2463,13 +2466,13 @@
         <v>45901.5</v>
       </c>
       <c r="N16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2513,13 +2516,13 @@
         <v>45901.5</v>
       </c>
       <c r="N17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2563,13 +2566,13 @@
         <v>45901.5</v>
       </c>
       <c r="N18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2613,13 +2616,13 @@
         <v>45901.5</v>
       </c>
       <c r="N19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2660,13 +2663,13 @@
         <v>45901.5</v>
       </c>
       <c r="N20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2713,10 +2716,10 @@
         <v>297</v>
       </c>
       <c r="O21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2757,13 +2760,13 @@
         <v>45901.5</v>
       </c>
       <c r="N22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2804,13 +2807,13 @@
         <v>45901.5</v>
       </c>
       <c r="N23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2851,13 +2854,13 @@
         <v>45901.5</v>
       </c>
       <c r="N24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2898,13 +2901,13 @@
         <v>45901.5</v>
       </c>
       <c r="N25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2945,13 +2948,13 @@
         <v>45901.5</v>
       </c>
       <c r="N26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2992,13 +2995,13 @@
         <v>45901.5</v>
       </c>
       <c r="N27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3042,13 +3045,13 @@
         <v>45901.5</v>
       </c>
       <c r="N28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3089,13 +3092,13 @@
         <v>45901.5</v>
       </c>
       <c r="N29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3136,13 +3139,13 @@
         <v>45901.5</v>
       </c>
       <c r="N30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3183,13 +3186,13 @@
         <v>45901.5</v>
       </c>
       <c r="N31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3233,13 +3236,13 @@
         <v>45915.5</v>
       </c>
       <c r="N32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O32" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3283,13 +3286,13 @@
         <v>45915.5</v>
       </c>
       <c r="N33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O33" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3330,13 +3333,13 @@
         <v>45915.5</v>
       </c>
       <c r="N34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O34" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3377,13 +3380,13 @@
         <v>45915.5</v>
       </c>
       <c r="N35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3424,13 +3427,13 @@
         <v>45915.5</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3471,13 +3474,13 @@
         <v>45915.5</v>
       </c>
       <c r="N37" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3521,13 +3524,13 @@
         <v>45915.5</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3568,13 +3571,13 @@
         <v>45915.5</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3615,13 +3618,13 @@
         <v>45915.5</v>
       </c>
       <c r="N40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3662,13 +3665,13 @@
         <v>45915.5</v>
       </c>
       <c r="N41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3709,13 +3712,13 @@
         <v>45915.5</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3756,13 +3759,13 @@
         <v>45915.5</v>
       </c>
       <c r="N43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3803,13 +3806,13 @@
         <v>45915.5</v>
       </c>
       <c r="N44" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3850,13 +3853,13 @@
         <v>45915.5</v>
       </c>
       <c r="N45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3897,13 +3900,13 @@
         <v>45915.5</v>
       </c>
       <c r="N46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3944,13 +3947,13 @@
         <v>45915.5</v>
       </c>
       <c r="N47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3991,13 +3994,13 @@
         <v>45901.5</v>
       </c>
       <c r="N48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4038,13 +4041,13 @@
         <v>45915.5</v>
       </c>
       <c r="N49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4085,13 +4088,13 @@
         <v>45915.5</v>
       </c>
       <c r="N50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O50" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4132,13 +4135,13 @@
         <v>45901.5</v>
       </c>
       <c r="N51" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4179,13 +4182,13 @@
         <v>45929.5</v>
       </c>
       <c r="N52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4226,13 +4229,13 @@
         <v>45894.5</v>
       </c>
       <c r="N53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4273,13 +4276,13 @@
         <v>45915.5</v>
       </c>
       <c r="N54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4320,13 +4323,13 @@
         <v>45915.5</v>
       </c>
       <c r="N55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4367,13 +4370,13 @@
         <v>45901.5</v>
       </c>
       <c r="N56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4417,13 +4420,13 @@
         <v>45901.5</v>
       </c>
       <c r="N57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4464,13 +4467,13 @@
         <v>45922.5</v>
       </c>
       <c r="N58" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4507,17 +4510,17 @@
       <c r="L59" s="2">
         <v>45859</v>
       </c>
-      <c r="M59" s="2">
-        <v>45922.5</v>
+      <c r="M59" t="s">
+        <v>301</v>
       </c>
       <c r="N59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O59" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4558,13 +4561,13 @@
         <v>45901.5</v>
       </c>
       <c r="N60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O60" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4605,13 +4608,13 @@
         <v>45901.5</v>
       </c>
       <c r="N61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4655,13 +4658,13 @@
         <v>45929.5</v>
       </c>
       <c r="N62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O62" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4705,13 +4708,13 @@
         <v>45929.5</v>
       </c>
       <c r="N63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O63" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4755,13 +4758,13 @@
         <v>45929.5</v>
       </c>
       <c r="N64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4805,13 +4808,13 @@
         <v>45929.5</v>
       </c>
       <c r="N65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O65" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4852,13 +4855,13 @@
         <v>45950.5</v>
       </c>
       <c r="N66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4899,13 +4902,13 @@
         <v>45929.5</v>
       </c>
       <c r="N67" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O67" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4946,13 +4949,13 @@
         <v>45915.5</v>
       </c>
       <c r="N68" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4993,13 +4996,13 @@
         <v>45929.5</v>
       </c>
       <c r="N69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O69" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5034,13 +5037,13 @@
         <v>300</v>
       </c>
       <c r="M70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/data/טבלת מכרזים יוני 25.xlsx
+++ b/data/טבלת מכרזים יוני 25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="428">
   <si>
     <t>id</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>חסרי דירה</t>
+  </si>
+  <si>
+    <t>2025-06-10 00:00:00</t>
   </si>
   <si>
     <t>פורסמה</t>
@@ -1766,13 +1769,13 @@
         <v>45894.5</v>
       </c>
       <c r="N2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1816,13 +1819,13 @@
         <v>45887.5</v>
       </c>
       <c r="N3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1866,13 +1869,13 @@
         <v>45887.5</v>
       </c>
       <c r="N4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1916,13 +1919,13 @@
         <v>45894.5</v>
       </c>
       <c r="N5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1966,13 +1969,13 @@
         <v>45887.5</v>
       </c>
       <c r="N6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2016,13 +2019,13 @@
         <v>45901.5</v>
       </c>
       <c r="N7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2066,13 +2069,13 @@
         <v>45894.5</v>
       </c>
       <c r="N8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2116,13 +2119,13 @@
         <v>45901.5</v>
       </c>
       <c r="N9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2166,13 +2169,13 @@
         <v>45894.5</v>
       </c>
       <c r="N10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2216,13 +2219,13 @@
         <v>45901.5</v>
       </c>
       <c r="N11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2266,13 +2269,13 @@
         <v>45901.5</v>
       </c>
       <c r="N12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2316,13 +2319,13 @@
         <v>45901.5</v>
       </c>
       <c r="N13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2366,13 +2369,13 @@
         <v>45901.5</v>
       </c>
       <c r="N14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2416,13 +2419,13 @@
         <v>45901.5</v>
       </c>
       <c r="N15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2466,13 +2469,13 @@
         <v>45901.5</v>
       </c>
       <c r="N16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2516,13 +2519,13 @@
         <v>45901.5</v>
       </c>
       <c r="N17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2566,13 +2569,13 @@
         <v>45901.5</v>
       </c>
       <c r="N18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2616,13 +2619,13 @@
         <v>45901.5</v>
       </c>
       <c r="N19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2663,13 +2666,13 @@
         <v>45901.5</v>
       </c>
       <c r="N20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2716,10 +2719,10 @@
         <v>297</v>
       </c>
       <c r="O21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2760,13 +2763,13 @@
         <v>45901.5</v>
       </c>
       <c r="N22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2807,13 +2810,13 @@
         <v>45901.5</v>
       </c>
       <c r="N23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2854,13 +2857,13 @@
         <v>45901.5</v>
       </c>
       <c r="N24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2901,13 +2904,13 @@
         <v>45901.5</v>
       </c>
       <c r="N25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O25" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2948,13 +2951,13 @@
         <v>45901.5</v>
       </c>
       <c r="N26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2995,13 +2998,13 @@
         <v>45901.5</v>
       </c>
       <c r="N27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3045,13 +3048,13 @@
         <v>45901.5</v>
       </c>
       <c r="N28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3092,13 +3095,13 @@
         <v>45901.5</v>
       </c>
       <c r="N29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3139,13 +3142,13 @@
         <v>45901.5</v>
       </c>
       <c r="N30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3186,13 +3189,13 @@
         <v>45901.5</v>
       </c>
       <c r="N31" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3236,13 +3239,13 @@
         <v>45915.5</v>
       </c>
       <c r="N32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O32" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3286,13 +3289,13 @@
         <v>45915.5</v>
       </c>
       <c r="N33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3333,13 +3336,13 @@
         <v>45915.5</v>
       </c>
       <c r="N34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3380,13 +3383,13 @@
         <v>45915.5</v>
       </c>
       <c r="N35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3427,13 +3430,13 @@
         <v>45915.5</v>
       </c>
       <c r="N36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3474,13 +3477,13 @@
         <v>45915.5</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3524,13 +3527,13 @@
         <v>45915.5</v>
       </c>
       <c r="N38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3571,13 +3574,13 @@
         <v>45915.5</v>
       </c>
       <c r="N39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3618,13 +3621,13 @@
         <v>45915.5</v>
       </c>
       <c r="N40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3665,13 +3668,13 @@
         <v>45915.5</v>
       </c>
       <c r="N41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3712,13 +3715,13 @@
         <v>45915.5</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3759,13 +3762,13 @@
         <v>45915.5</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3806,13 +3809,13 @@
         <v>45915.5</v>
       </c>
       <c r="N44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O44" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3853,13 +3856,13 @@
         <v>45915.5</v>
       </c>
       <c r="N45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3900,13 +3903,13 @@
         <v>45915.5</v>
       </c>
       <c r="N46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3947,13 +3950,13 @@
         <v>45915.5</v>
       </c>
       <c r="N47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3994,13 +3997,13 @@
         <v>45901.5</v>
       </c>
       <c r="N48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -4041,13 +4044,13 @@
         <v>45915.5</v>
       </c>
       <c r="N49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O49" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -4088,13 +4091,13 @@
         <v>45915.5</v>
       </c>
       <c r="N50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4135,13 +4138,13 @@
         <v>45901.5</v>
       </c>
       <c r="N51" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4182,13 +4185,13 @@
         <v>45929.5</v>
       </c>
       <c r="N52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4229,13 +4232,13 @@
         <v>45894.5</v>
       </c>
       <c r="N53" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4276,13 +4279,13 @@
         <v>45915.5</v>
       </c>
       <c r="N54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4323,13 +4326,13 @@
         <v>45915.5</v>
       </c>
       <c r="N55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4370,13 +4373,13 @@
         <v>45901.5</v>
       </c>
       <c r="N56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4420,13 +4423,13 @@
         <v>45901.5</v>
       </c>
       <c r="N57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O57" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4467,13 +4470,13 @@
         <v>45922.5</v>
       </c>
       <c r="N58" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4507,20 +4510,20 @@
       <c r="K59" t="s">
         <v>297</v>
       </c>
-      <c r="L59" s="2">
-        <v>45859</v>
+      <c r="L59" t="s">
+        <v>300</v>
       </c>
       <c r="M59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4561,13 +4564,13 @@
         <v>45901.5</v>
       </c>
       <c r="N60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O60" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4608,13 +4611,13 @@
         <v>45901.5</v>
       </c>
       <c r="N61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O61" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4658,13 +4661,13 @@
         <v>45929.5</v>
       </c>
       <c r="N62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O62" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4708,13 +4711,13 @@
         <v>45929.5</v>
       </c>
       <c r="N63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O63" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4758,13 +4761,13 @@
         <v>45929.5</v>
       </c>
       <c r="N64" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O64" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4808,13 +4811,13 @@
         <v>45929.5</v>
       </c>
       <c r="N65" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O65" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4855,13 +4858,13 @@
         <v>45950.5</v>
       </c>
       <c r="N66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4902,13 +4905,13 @@
         <v>45929.5</v>
       </c>
       <c r="N67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O67" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4949,13 +4952,13 @@
         <v>45915.5</v>
       </c>
       <c r="N68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4996,13 +4999,13 @@
         <v>45929.5</v>
       </c>
       <c r="N69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -5034,16 +5037,16 @@
         <v>297</v>
       </c>
       <c r="L70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O70" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
